--- a/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6928</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1479</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19101</v>
+        <v>18970</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01698834285645207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003626374487699827</v>
+        <v>0.003677265051698074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04683927298733429</v>
+        <v>0.04651813071664412</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -762,19 +762,19 @@
         <v>60871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44134</v>
+        <v>41448</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83202</v>
+        <v>86225</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1679157698378613</v>
+        <v>0.1679157698378612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.121745600501345</v>
+        <v>0.114336620682607</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2295155971109241</v>
+        <v>0.2378541781465901</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -783,19 +783,19 @@
         <v>67799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47807</v>
+        <v>47257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92413</v>
+        <v>95333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08801604871219366</v>
+        <v>0.08801604871219365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06206302615777042</v>
+        <v>0.0613481189368594</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1199697924709453</v>
+        <v>0.1237605868143049</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>400865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>388692</v>
+        <v>388823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406314</v>
+        <v>406293</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9830116571435481</v>
+        <v>0.983011657143548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9531607270126657</v>
+        <v>0.9534818692833564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9963736255123002</v>
+        <v>0.996322734948302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -833,19 +833,19 @@
         <v>301641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279310</v>
+        <v>276287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318378</v>
+        <v>321064</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8320842301621386</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7704844028890759</v>
+        <v>0.7621458218534101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8782543994986551</v>
+        <v>0.885663379317393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -854,19 +854,19 @@
         <v>702506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>677892</v>
+        <v>674972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>722498</v>
+        <v>723048</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9119839512878065</v>
+        <v>0.9119839512878064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8800302075290545</v>
+        <v>0.8762394131856951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9379369738422296</v>
+        <v>0.9386518810631408</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26175</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16027</v>
+        <v>14650</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41656</v>
+        <v>39747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05488649756153303</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03360777086242927</v>
+        <v>0.03071901334710633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.087349084186698</v>
+        <v>0.08334653433790012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -979,19 +979,19 @@
         <v>71381</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56297</v>
+        <v>56408</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88694</v>
+        <v>88745</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1422694250237448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1122048005169759</v>
+        <v>0.1124266760154932</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1767758627901933</v>
+        <v>0.1768771822633359</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -1000,19 +1000,19 @@
         <v>97556</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78858</v>
+        <v>77665</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120094</v>
+        <v>118029</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09968706916047673</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08058063738508775</v>
+        <v>0.07936142788515328</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1227173580939464</v>
+        <v>0.1206072981575441</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>450715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>435234</v>
+        <v>437143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460863</v>
+        <v>462240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9451135024384669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9126509158133019</v>
+        <v>0.9166534656620999</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9663922291375708</v>
+        <v>0.9692809866528936</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>398</v>
@@ -1050,19 +1050,19 @@
         <v>430352</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>413039</v>
+        <v>412988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>445436</v>
+        <v>445325</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8577305749762552</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8232241372098066</v>
+        <v>0.823122817736664</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8877951994830238</v>
+        <v>0.8875733239845062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>682</v>
@@ -1071,19 +1071,19 @@
         <v>881067</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858529</v>
+        <v>860594</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>899765</v>
+        <v>900958</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9003129308395231</v>
+        <v>0.9003129308395234</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8772826419060533</v>
+        <v>0.8793927018424558</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9194193626149122</v>
+        <v>0.9206385721148466</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>52228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39984</v>
+        <v>40307</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68434</v>
+        <v>70495</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08412434308131921</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06440416970779035</v>
+        <v>0.06492388124659423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1102291388547342</v>
+        <v>0.1135476423215107</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>154</v>
@@ -1196,19 +1196,19 @@
         <v>113298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96472</v>
+        <v>96438</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129312</v>
+        <v>128725</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1818021837188089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1548027860632555</v>
+        <v>0.1547490012208287</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.207498507772377</v>
+        <v>0.2065576570037121</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>201</v>
@@ -1217,19 +1217,19 @@
         <v>165525</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144659</v>
+        <v>144839</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186408</v>
+        <v>189601</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1330557491513691</v>
+        <v>0.133055749151369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1162830347590698</v>
+        <v>0.1164277221244641</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1498425527743176</v>
+        <v>0.1524087231760075</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>568609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>552403</v>
+        <v>550342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>580853</v>
+        <v>580530</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9158756569186809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8897708611452658</v>
+        <v>0.8864523576784893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9355958302922095</v>
+        <v>0.9350761187534059</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>694</v>
@@ -1267,19 +1267,19 @@
         <v>509895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>493881</v>
+        <v>494468</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>526721</v>
+        <v>526755</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8181978162811911</v>
+        <v>0.8181978162811913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7925014922276229</v>
+        <v>0.793442342996288</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8451972139367442</v>
+        <v>0.8452509987791714</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1193</v>
@@ -1288,19 +1288,19 @@
         <v>1078504</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1057621</v>
+        <v>1054428</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1099370</v>
+        <v>1099190</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.866944250848631</v>
+        <v>0.8669442508486309</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8501574472256825</v>
+        <v>0.8475912768239922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8837169652409302</v>
+        <v>0.8835722778755358</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>103886</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86343</v>
+        <v>84607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124695</v>
+        <v>123560</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1482780741984129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1232384650072744</v>
+        <v>0.1207606805552972</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1779794525768032</v>
+        <v>0.1763587137746009</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>289</v>
@@ -1413,19 +1413,19 @@
         <v>187024</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>169010</v>
+        <v>167994</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>205874</v>
+        <v>204065</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2538035566014025</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2293566839822217</v>
+        <v>0.2279781711269908</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2793843784748758</v>
+        <v>0.2769291875984033</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>387</v>
@@ -1434,19 +1434,19 @@
         <v>290911</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265958</v>
+        <v>265103</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>317245</v>
+        <v>320619</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.202372056121965</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1850135283908945</v>
+        <v>0.1844191237637151</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2206917413528174</v>
+        <v>0.2230385184522225</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>596731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>575922</v>
+        <v>577057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>614274</v>
+        <v>616010</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8517219258015871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8220205474231967</v>
+        <v>0.823641286225399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8767615349927255</v>
+        <v>0.8792393194447027</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>852</v>
@@ -1484,19 +1484,19 @@
         <v>549862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>531012</v>
+        <v>532821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>567876</v>
+        <v>568892</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7461964433985976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.720615621525124</v>
+        <v>0.7230708124015968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7706433160177781</v>
+        <v>0.7720218288730092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1419</v>
@@ -1505,19 +1505,19 @@
         <v>1146593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1120259</v>
+        <v>1116885</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1171546</v>
+        <v>1172401</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7976279438780348</v>
+        <v>0.7976279438780349</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7793082586471828</v>
+        <v>0.7769614815477774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8149864716091055</v>
+        <v>0.8155808762362848</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>123685</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105071</v>
+        <v>106526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141943</v>
+        <v>142499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2029791073041801</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1724331055274225</v>
+        <v>0.1748206408525466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2329428494950907</v>
+        <v>0.233855772088105</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>325</v>
@@ -1630,19 +1630,19 @@
         <v>200521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>182521</v>
+        <v>182743</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>218973</v>
+        <v>217660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3293408390034147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2997773691166863</v>
+        <v>0.3001417846716338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3596471832665515</v>
+        <v>0.3574909868490885</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>460</v>
@@ -1651,19 +1651,19 @@
         <v>324206</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>297380</v>
+        <v>297071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>348957</v>
+        <v>351128</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2661345056567531</v>
+        <v>0.266134505656753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2441138354237266</v>
+        <v>0.2438602789518981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.286452588074783</v>
+        <v>0.2882347379883387</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>485661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>467403</v>
+        <v>466847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>504275</v>
+        <v>502820</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7970208926958199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7670571505049091</v>
+        <v>0.766144227911895</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8275668944725773</v>
+        <v>0.8251793591474533</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>677</v>
@@ -1701,19 +1701,19 @@
         <v>408334</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>389882</v>
+        <v>391195</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>426334</v>
+        <v>426112</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6706591609965852</v>
+        <v>0.6706591609965853</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6403528167334485</v>
+        <v>0.6425090131509114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7002226308833138</v>
+        <v>0.6998582153283659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1205</v>
@@ -1722,19 +1722,19 @@
         <v>893996</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>869245</v>
+        <v>867074</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>920822</v>
+        <v>921131</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.733865494343247</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.713547411925217</v>
+        <v>0.711765262011661</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7558861645762734</v>
+        <v>0.7561397210481016</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>81378</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68643</v>
+        <v>68593</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96730</v>
+        <v>94713</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1999062306868719</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1686216993408771</v>
+        <v>0.168500652063651</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2376189471535818</v>
+        <v>0.2326635671726084</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>287</v>
@@ -1847,19 +1847,19 @@
         <v>157730</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>142764</v>
+        <v>142793</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>173202</v>
+        <v>173401</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3591577575939535</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3250797033376698</v>
+        <v>0.3251465710843032</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.394389582500592</v>
+        <v>0.3948422269544539</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>406</v>
@@ -1868,19 +1868,19 @@
         <v>239108</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>220270</v>
+        <v>219923</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>258730</v>
+        <v>259701</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.282551103230841</v>
+        <v>0.2825511032308411</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2602908120272331</v>
+        <v>0.2598801411536211</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3057382215562133</v>
+        <v>0.3068857881969148</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>325702</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>310350</v>
+        <v>312367</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>338437</v>
+        <v>338487</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.800093769313128</v>
+        <v>0.8000937693131281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.762381052846418</v>
+        <v>0.7673364328273914</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8313783006591229</v>
+        <v>0.8314993479363487</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>540</v>
@@ -1918,19 +1918,19 @@
         <v>281436</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265964</v>
+        <v>265765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>296402</v>
+        <v>296373</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6408422424060466</v>
+        <v>0.6408422424060465</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6056104174994081</v>
+        <v>0.605157773045546</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6749202966623304</v>
+        <v>0.6748534289156968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>991</v>
@@ -1939,19 +1939,19 @@
         <v>607138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>587516</v>
+        <v>586545</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>625976</v>
+        <v>626323</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7174488967691588</v>
+        <v>0.7174488967691589</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6942617784437866</v>
+        <v>0.6931142118030851</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7397091879727669</v>
+        <v>0.7401198588463788</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>102059</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88617</v>
+        <v>89363</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114771</v>
+        <v>117963</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3290131822253207</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2856781333479769</v>
+        <v>0.2880824174213188</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3699936575801329</v>
+        <v>0.3802817994549644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>496</v>
@@ -2064,19 +2064,19 @@
         <v>259412</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>244587</v>
+        <v>241982</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>275817</v>
+        <v>273990</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5583442769615101</v>
+        <v>0.55834427696151</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5264357748137034</v>
+        <v>0.5208284206842265</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5936545644131409</v>
+        <v>0.5897219585423693</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>651</v>
@@ -2085,19 +2085,19 @@
         <v>361471</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>339178</v>
+        <v>339459</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>381181</v>
+        <v>382697</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4665303163687373</v>
+        <v>0.4665303163687372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4377583915602236</v>
+        <v>0.4381206650523334</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4919690198358053</v>
+        <v>0.4939261594988399</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>208139</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>195427</v>
+        <v>192235</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>221581</v>
+        <v>220835</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6709868177746792</v>
+        <v>0.6709868177746793</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6300063424198672</v>
+        <v>0.6197182005450355</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.714321866652023</v>
+        <v>0.7119175825786811</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>385</v>
@@ -2135,19 +2135,19 @@
         <v>205197</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>188792</v>
+        <v>190619</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>220022</v>
+        <v>222627</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4416557230384899</v>
+        <v>0.4416557230384898</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.406345435586859</v>
+        <v>0.4102780414576308</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4735642251862963</v>
+        <v>0.4791715793157734</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>688</v>
@@ -2156,19 +2156,19 @@
         <v>413336</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>393626</v>
+        <v>392110</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>435629</v>
+        <v>435348</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5334696836312628</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5080309801641947</v>
+        <v>0.5060738405011606</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5622416084397763</v>
+        <v>0.5618793349476667</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>496338</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>458790</v>
+        <v>456484</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>538974</v>
+        <v>539034</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1404957180511736</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.129867320865736</v>
+        <v>0.1292144771635987</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1525644645291823</v>
+        <v>0.1525813764115688</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1644</v>
@@ -2281,19 +2281,19 @@
         <v>1050237</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>994144</v>
+        <v>1002324</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1095090</v>
+        <v>1096370</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2810410391840895</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2660306105763812</v>
+        <v>0.2682196122602832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2930435315698691</v>
+        <v>0.2933860130067676</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2219</v>
@@ -2302,19 +2302,19 @@
         <v>1546575</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1484299</v>
+        <v>1483431</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1614309</v>
+        <v>1608698</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2127422016770779</v>
+        <v>0.2127422016770778</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.204175684077065</v>
+        <v>0.2040562668892864</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2220594526485106</v>
+        <v>0.2212876510752373</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3036424</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2993788</v>
+        <v>2993728</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3073972</v>
+        <v>3076278</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8595042819488264</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.847435535470818</v>
+        <v>0.8474186235884312</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8701326791342641</v>
+        <v>0.8707855228364012</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3723</v>
@@ -2352,19 +2352,19 @@
         <v>2686717</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2641864</v>
+        <v>2640584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2742810</v>
+        <v>2734630</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7189589608159107</v>
+        <v>0.7189589608159106</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.706956468430131</v>
+        <v>0.7066139869932319</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7339693894236188</v>
+        <v>0.7317803877397165</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6524</v>
@@ -2373,19 +2373,19 @@
         <v>5723141</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5655407</v>
+        <v>5661018</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5785417</v>
+        <v>5786285</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.787257798322922</v>
+        <v>0.7872577983229221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7779405473514892</v>
+        <v>0.7787123489247627</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7958243159229351</v>
+        <v>0.795943733110714</v>
       </c>
     </row>
     <row r="27">
